--- a/etlutil/system_init.xlsx
+++ b/etlutil/system_init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" tabRatio="500"/>
+    <workbookView windowWidth="22728" windowHeight="8952" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="meta_dict" sheetId="2" r:id="rId1"/>
@@ -151,7 +151,7 @@
     <t>实例名或数据库名</t>
   </si>
   <si>
-    <t>schema</t>
+    <t>schema_v</t>
   </si>
   <si>
     <t>模式名或数据库名</t>
@@ -481,7 +481,7 @@
     <t>分组名</t>
   </si>
   <si>
-    <t>src_schema</t>
+    <t>src_schema_v</t>
   </si>
   <si>
     <t>源数据库名或模式名</t>
@@ -505,7 +505,7 @@
     <t>JOIN方式</t>
   </si>
   <si>
-    <t>snd_schema</t>
+    <t>snd_schema_v</t>
   </si>
   <si>
     <t>次源数据库名或模式名</t>
@@ -1336,11 +1336,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1403,7 +1403,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1433,51 +1476,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1507,13 +1506,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -1537,9 +1538,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1547,7 +1547,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1580,7 +1580,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,19 +1670,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,25 +1694,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,37 +1730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,67 +1748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,26 +1783,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1823,27 +1823,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1859,9 +1857,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1883,52 +1883,52 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1937,94 +1937,94 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2434,9 +2434,9 @@
   <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>edb_schema</v>
+        <v>edb_schema_v</v>
       </c>
       <c r="I18" s="3"/>
     </row>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>src_schema</v>
+        <v>src_schema_v</v>
       </c>
       <c r="I29" s="3"/>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="H37" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>src_schema</v>
+        <v>src_schema_v</v>
       </c>
       <c r="I37" s="3"/>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="H46" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>src_schema</v>
+        <v>src_schema_v</v>
       </c>
       <c r="I46" s="3"/>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="H65" s="3" t="str">
         <f t="shared" ref="H65:H84" si="5">"itl_"&amp;B65</f>
-        <v>itl_schema</v>
+        <v>itl_schema_v</v>
       </c>
       <c r="I65" s="3"/>
     </row>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="H76" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>itl_schema</v>
+        <v>itl_schema_v</v>
       </c>
       <c r="I76" s="3"/>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="H85" s="3" t="str">
         <f t="shared" ref="H85:H99" si="6">"iol_"&amp;B85</f>
-        <v>iol_schema</v>
+        <v>iol_schema_v</v>
       </c>
       <c r="I85" s="3"/>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="H92" s="3" t="str">
         <f t="shared" si="6"/>
-        <v>iol_schema</v>
+        <v>iol_schema_v</v>
       </c>
       <c r="I92" s="3"/>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="H103" s="3" t="str">
         <f t="shared" ref="H103:H133" si="7">"iml_"&amp;B103</f>
-        <v>iml_schema</v>
+        <v>iml_schema_v</v>
       </c>
       <c r="I103" s="3"/>
     </row>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="H109" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>iml_schema</v>
+        <v>iml_schema_v</v>
       </c>
       <c r="I109" s="3"/>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="H117" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>iml_schema</v>
+        <v>iml_schema_v</v>
       </c>
       <c r="I117" s="3"/>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="H124" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>iml_src_schema</v>
+        <v>iml_src_schema_v</v>
       </c>
       <c r="I124" s="3"/>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="H129" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>iml_snd_schema</v>
+        <v>iml_snd_schema_v</v>
       </c>
       <c r="I129" s="3"/>
     </row>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="H134" s="3" t="str">
         <f t="shared" ref="H134:H148" si="9">"icl_"&amp;B134</f>
-        <v>icl_schema</v>
+        <v>icl_schema_v</v>
       </c>
       <c r="I134" s="3"/>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="H141" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>icl_schema</v>
+        <v>icl_schema_v</v>
       </c>
       <c r="I141" s="3"/>
     </row>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="H149" s="3" t="str">
         <f t="shared" ref="H149:H163" si="10">"idl_"&amp;B149</f>
-        <v>idl_schema</v>
+        <v>idl_schema_v</v>
       </c>
       <c r="I149" s="3"/>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="H156" s="3" t="str">
         <f t="shared" si="10"/>
-        <v>idl_schema</v>
+        <v>idl_schema_v</v>
       </c>
       <c r="I156" s="3"/>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="H165" s="3" t="str">
         <f>"iel_"&amp;B165</f>
-        <v>iel_schema</v>
+        <v>iel_schema_v</v>
       </c>
       <c r="I165" s="3"/>
     </row>

--- a/etlutil/system_init.xlsx
+++ b/etlutil/system_init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22728" windowHeight="8952" tabRatio="500"/>
+    <workbookView windowWidth="22368" windowHeight="9924" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="meta_dict" sheetId="2" r:id="rId1"/>
@@ -1335,12 +1335,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1403,13 +1404,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -1417,44 +1411,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1476,7 +1433,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1506,17 +1494,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,8 +1531,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1547,7 +1541,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1580,67 +1581,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,37 +1617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,7 +1641,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,19 +1695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,7 +1707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,13 +1719,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,6 +1794,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1803,6 +1819,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1818,50 +1863,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1883,152 +1884,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2069,13 +2070,17 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2434,9 +2439,9 @@
   <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2445,7 +2450,7 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="29.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="14" customWidth="1"/>
     <col min="8" max="8" width="29.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="17.1666666666667" customWidth="1"/>
   </cols>
@@ -2469,7 +2474,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2480,240 +2485,240 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="F2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="14" t="str">
-        <f t="shared" ref="H2:H10" si="0">"mta_"&amp;B2</f>
+      <c r="H2" s="16" t="str">
+        <f>"mta_"&amp;B2</f>
         <v>mta_table_name</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="17">
         <v>1</v>
       </c>
-      <c r="H3" s="14" t="str">
-        <f t="shared" si="0"/>
+      <c r="H3" s="16" t="str">
+        <f t="shared" ref="H2:H10" si="0">"mta_"&amp;B3</f>
         <v>mta_column_name</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14" t="str">
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mta_column_type</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14" t="str">
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mta_default_value</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14" t="str">
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mta_table_cn_name</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14" t="str">
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mta_column_cn_name</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14" t="str">
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mta_is_pk</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14" t="str">
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mta_key_name</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
+      <c r="C10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14" t="str">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>mta_remark</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
@@ -2732,7 +2737,7 @@
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="18">
         <v>0</v>
       </c>
       <c r="H11" s="3" t="str">
@@ -2758,7 +2763,7 @@
       <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="18">
         <v>0</v>
       </c>
       <c r="H12" s="3" t="str">
@@ -2784,7 +2789,7 @@
       <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="18">
         <v>0</v>
       </c>
       <c r="H13" s="3" t="str">
@@ -2810,7 +2815,7 @@
       <c r="F14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="18">
         <v>1</v>
       </c>
       <c r="H14" s="3" t="str">
@@ -2836,7 +2841,7 @@
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="18">
         <v>0</v>
       </c>
       <c r="H15" s="3" t="str">
@@ -2862,7 +2867,7 @@
       <c r="F16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="18">
         <v>0</v>
       </c>
       <c r="H16" s="3" t="str">
@@ -2888,7 +2893,7 @@
       <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="18">
         <v>0</v>
       </c>
       <c r="H17" s="3" t="str">
@@ -2914,7 +2919,7 @@
       <c r="F18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="18">
         <v>0</v>
       </c>
       <c r="H18" s="3" t="str">
@@ -2940,7 +2945,7 @@
       <c r="F19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="18">
         <v>0</v>
       </c>
       <c r="H19" s="3" t="str">
@@ -2966,7 +2971,7 @@
       <c r="F20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="18">
         <v>0</v>
       </c>
       <c r="H20" s="3" t="str">
@@ -2992,7 +2997,7 @@
       <c r="F21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="18">
         <v>0</v>
       </c>
       <c r="H21" s="3" t="str">
@@ -3018,7 +3023,7 @@
       <c r="F22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="18">
         <v>0</v>
       </c>
       <c r="H22" s="3" t="str">
@@ -3044,7 +3049,7 @@
       <c r="F23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="18">
         <v>0</v>
       </c>
       <c r="H23" s="3" t="str">
@@ -3070,7 +3075,7 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="18">
         <v>0</v>
       </c>
       <c r="H24" s="3" t="str">
@@ -3096,7 +3101,7 @@
       <c r="F25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="18">
         <v>1</v>
       </c>
       <c r="H25" s="3" t="str">
@@ -3122,7 +3127,7 @@
       <c r="F26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="18">
         <v>0</v>
       </c>
       <c r="H26" s="3" t="str">
@@ -3148,7 +3153,7 @@
       <c r="F27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="18">
         <v>0</v>
       </c>
       <c r="H27" s="3" t="str">
@@ -3174,7 +3179,7 @@
       <c r="F28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="18">
         <v>0</v>
       </c>
       <c r="H28" s="3" t="str">
@@ -3200,7 +3205,7 @@
       <c r="F29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="18">
         <v>1</v>
       </c>
       <c r="H29" s="3" t="str">
@@ -3226,7 +3231,7 @@
       <c r="F30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="18">
         <v>0</v>
       </c>
       <c r="H30" s="3" t="str">
@@ -3252,7 +3257,7 @@
       <c r="F31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="18">
         <v>0</v>
       </c>
       <c r="H31" s="3" t="str">
@@ -3278,7 +3283,7 @@
       <c r="F32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="18">
         <v>0</v>
       </c>
       <c r="H32" s="3" t="str">
@@ -3304,7 +3309,7 @@
       <c r="F33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="18">
         <v>0</v>
       </c>
       <c r="H33" s="3" t="str">
@@ -3330,7 +3335,7 @@
       <c r="F34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="18">
         <v>0</v>
       </c>
       <c r="H34" s="3" t="str">
@@ -3356,7 +3361,7 @@
       <c r="F35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="18">
         <v>0</v>
       </c>
       <c r="H35" s="3" t="str">
@@ -3382,7 +3387,7 @@
       <c r="F36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="18">
         <v>1</v>
       </c>
       <c r="H36" s="3" t="str">
@@ -3408,7 +3413,7 @@
       <c r="F37" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="18">
         <v>1</v>
       </c>
       <c r="H37" s="3" t="str">
@@ -3434,7 +3439,7 @@
       <c r="F38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="18">
         <v>1</v>
       </c>
       <c r="H38" s="3" t="str">
@@ -3460,7 +3465,7 @@
       <c r="F39" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="18">
         <v>0</v>
       </c>
       <c r="H39" s="3" t="str">
@@ -3486,7 +3491,7 @@
       <c r="F40" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="18">
         <v>0</v>
       </c>
       <c r="H40" s="3" t="str">
@@ -3512,7 +3517,7 @@
       <c r="F41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="18">
         <v>0</v>
       </c>
       <c r="H41" s="3" t="str">
@@ -3538,7 +3543,7 @@
       <c r="F42" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="18">
         <v>0</v>
       </c>
       <c r="H42" s="3" t="str">
@@ -3564,7 +3569,7 @@
       <c r="F43" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="18">
         <v>0</v>
       </c>
       <c r="H43" s="3" t="str">
@@ -3590,7 +3595,7 @@
       <c r="F44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="18">
         <v>0</v>
       </c>
       <c r="H44" s="3" t="str">
@@ -3616,7 +3621,7 @@
       <c r="F45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="18">
         <v>1</v>
       </c>
       <c r="H45" s="3" t="str">
@@ -3642,7 +3647,7 @@
       <c r="F46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="18">
         <v>1</v>
       </c>
       <c r="H46" s="3" t="str">
@@ -3668,7 +3673,7 @@
       <c r="F47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="18">
         <v>1</v>
       </c>
       <c r="H47" s="3" t="str">
@@ -3694,7 +3699,7 @@
       <c r="F48" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="18">
         <v>0</v>
       </c>
       <c r="H48" s="3" t="str">
@@ -3720,7 +3725,7 @@
       <c r="F49" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="18">
         <v>1</v>
       </c>
       <c r="H49" s="3" t="str">
@@ -3746,7 +3751,7 @@
       <c r="F50" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="18">
         <v>0</v>
       </c>
       <c r="H50" s="3" t="str">
@@ -3772,7 +3777,7 @@
       <c r="F51" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="18">
         <v>0</v>
       </c>
       <c r="H51" s="3" t="str">
@@ -3798,7 +3803,7 @@
       <c r="F52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="18">
         <v>0</v>
       </c>
       <c r="H52" s="3" t="str">
@@ -3824,7 +3829,7 @@
       <c r="F53" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="18">
         <v>0</v>
       </c>
       <c r="H53" s="3" t="str">
@@ -3850,7 +3855,7 @@
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="18">
         <v>0</v>
       </c>
       <c r="H54" s="3" t="str">
@@ -3876,7 +3881,7 @@
       <c r="F55" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="18">
         <v>0</v>
       </c>
       <c r="H55" s="3" t="str">
@@ -3902,7 +3907,7 @@
       <c r="F56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="18">
         <v>0</v>
       </c>
       <c r="H56" s="3" t="str">
@@ -3928,7 +3933,7 @@
       <c r="F57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="18">
         <v>0</v>
       </c>
       <c r="H57" s="3" t="str">
@@ -3954,7 +3959,7 @@
       <c r="F58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="18">
         <v>0</v>
       </c>
       <c r="H58" s="3" t="str">
@@ -3980,7 +3985,7 @@
       <c r="F59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="18">
         <v>0</v>
       </c>
       <c r="H59" s="3" t="str">
@@ -4006,7 +4011,7 @@
       <c r="F60" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="18">
         <v>0</v>
       </c>
       <c r="H60" s="3" t="str">
@@ -4032,7 +4037,7 @@
       <c r="F61" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G61" s="18">
         <v>0</v>
       </c>
       <c r="H61" s="3" t="str">
@@ -4058,7 +4063,7 @@
       <c r="F62" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G62" s="18">
         <v>0</v>
       </c>
       <c r="H62" s="3" t="str">
@@ -4084,7 +4089,7 @@
       <c r="F63" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G63" s="18">
         <v>0</v>
       </c>
       <c r="H63" s="3" t="str">
@@ -4110,7 +4115,7 @@
       <c r="F64" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G64" s="18">
         <v>0</v>
       </c>
       <c r="H64" s="3" t="str">
@@ -4136,7 +4141,7 @@
       <c r="F65" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G65" s="16">
+      <c r="G65" s="18">
         <v>1</v>
       </c>
       <c r="H65" s="3" t="str">
@@ -4162,7 +4167,7 @@
       <c r="F66" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G66" s="18">
         <v>1</v>
       </c>
       <c r="H66" s="3" t="str">
@@ -4188,7 +4193,7 @@
       <c r="F67" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G67" s="18">
         <v>0</v>
       </c>
       <c r="H67" s="3" t="str">
@@ -4214,7 +4219,7 @@
       <c r="F68" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G68" s="18">
         <v>0</v>
       </c>
       <c r="H68" s="3" t="str">
@@ -4240,7 +4245,7 @@
       <c r="F69" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G69" s="18">
         <v>0</v>
       </c>
       <c r="H69" s="3" t="str">
@@ -4266,7 +4271,7 @@
       <c r="F70" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G70" s="18">
         <v>0</v>
       </c>
       <c r="H70" s="3" t="str">
@@ -4292,7 +4297,7 @@
       <c r="F71" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G71" s="18">
         <v>0</v>
       </c>
       <c r="H71" s="3" t="str">
@@ -4318,7 +4323,7 @@
       <c r="F72" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G72" s="18">
         <v>0</v>
       </c>
       <c r="H72" s="3" t="str">
@@ -4344,7 +4349,7 @@
       <c r="F73" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G73" s="18">
         <v>0</v>
       </c>
       <c r="H73" s="3" t="str">
@@ -4370,7 +4375,7 @@
       <c r="F74" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="18">
         <v>0</v>
       </c>
       <c r="H74" s="3" t="str">
@@ -4396,7 +4401,7 @@
       <c r="F75" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G75" s="18">
         <v>0</v>
       </c>
       <c r="H75" s="3" t="str">
@@ -4422,7 +4427,7 @@
       <c r="F76" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G76" s="18">
         <v>1</v>
       </c>
       <c r="H76" s="3" t="str">
@@ -4448,7 +4453,7 @@
       <c r="F77" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G77" s="16">
+      <c r="G77" s="18">
         <v>1</v>
       </c>
       <c r="H77" s="3" t="str">
@@ -4474,7 +4479,7 @@
       <c r="F78" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G78" s="18">
         <v>0</v>
       </c>
       <c r="H78" s="3" t="str">
@@ -4500,7 +4505,7 @@
       <c r="F79" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G79" s="18">
         <v>1</v>
       </c>
       <c r="H79" s="3" t="str">
@@ -4526,7 +4531,7 @@
       <c r="F80" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G80" s="18">
         <v>0</v>
       </c>
       <c r="H80" s="3" t="str">
@@ -4552,7 +4557,7 @@
       <c r="F81" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G81" s="18">
         <v>0</v>
       </c>
       <c r="H81" s="3" t="str">
@@ -4578,7 +4583,7 @@
       <c r="F82" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="18">
         <v>0</v>
       </c>
       <c r="H82" s="3" t="str">
@@ -4604,7 +4609,7 @@
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G83" s="18">
         <v>0</v>
       </c>
       <c r="H83" s="3" t="str">
@@ -4630,7 +4635,7 @@
       <c r="F84" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G84" s="18">
         <v>0</v>
       </c>
       <c r="H84" s="3" t="str">
@@ -4656,7 +4661,7 @@
       <c r="F85" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G85" s="18">
         <v>1</v>
       </c>
       <c r="H85" s="3" t="str">
@@ -4682,7 +4687,7 @@
       <c r="F86" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G86" s="16">
+      <c r="G86" s="18">
         <v>1</v>
       </c>
       <c r="H86" s="3" t="str">
@@ -4708,7 +4713,7 @@
       <c r="F87" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G87" s="18">
         <v>0</v>
       </c>
       <c r="H87" s="3" t="str">
@@ -4734,7 +4739,7 @@
       <c r="F88" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G88" s="18">
         <v>0</v>
       </c>
       <c r="H88" s="3" t="str">
@@ -4760,7 +4765,7 @@
       <c r="F89" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G89" s="16">
+      <c r="G89" s="18">
         <v>0</v>
       </c>
       <c r="H89" s="3" t="str">
@@ -4786,7 +4791,7 @@
       <c r="F90" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G90" s="16">
+      <c r="G90" s="18">
         <v>0</v>
       </c>
       <c r="H90" s="3" t="str">
@@ -4812,7 +4817,7 @@
       <c r="F91" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G91" s="16">
+      <c r="G91" s="18">
         <v>0</v>
       </c>
       <c r="H91" s="3" t="str">
@@ -4838,7 +4843,7 @@
       <c r="F92" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G92" s="16">
+      <c r="G92" s="18">
         <v>1</v>
       </c>
       <c r="H92" s="3" t="str">
@@ -4864,7 +4869,7 @@
       <c r="F93" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G93" s="16">
+      <c r="G93" s="18">
         <v>1</v>
       </c>
       <c r="H93" s="3" t="str">
@@ -4890,7 +4895,7 @@
       <c r="F94" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G94" s="16">
+      <c r="G94" s="18">
         <v>0</v>
       </c>
       <c r="H94" s="3" t="str">
@@ -4916,7 +4921,7 @@
       <c r="F95" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G95" s="16">
+      <c r="G95" s="18">
         <v>1</v>
       </c>
       <c r="H95" s="3" t="str">
@@ -4942,7 +4947,7 @@
       <c r="F96" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="16">
+      <c r="G96" s="18">
         <v>0</v>
       </c>
       <c r="H96" s="3" t="str">
@@ -4968,7 +4973,7 @@
       <c r="F97" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G97" s="16">
+      <c r="G97" s="18">
         <v>0</v>
       </c>
       <c r="H97" s="3" t="str">
@@ -4994,7 +4999,7 @@
       <c r="F98" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G98" s="16">
+      <c r="G98" s="18">
         <v>0</v>
       </c>
       <c r="H98" s="3" t="str">
@@ -5020,7 +5025,7 @@
       <c r="F99" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G99" s="16">
+      <c r="G99" s="18">
         <v>0</v>
       </c>
       <c r="H99" s="3" t="str">
@@ -5046,7 +5051,7 @@
       <c r="F100" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G100" s="16">
+      <c r="G100" s="18">
         <v>1</v>
       </c>
       <c r="H100" s="3" t="str">
@@ -5072,7 +5077,7 @@
       <c r="F101" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G101" s="16">
+      <c r="G101" s="18">
         <v>0</v>
       </c>
       <c r="H101" s="3" t="str">
@@ -5098,7 +5103,7 @@
       <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="16">
+      <c r="G102" s="18">
         <v>0</v>
       </c>
       <c r="H102" s="3" t="str">
@@ -5124,7 +5129,7 @@
       <c r="F103" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G103" s="16">
+      <c r="G103" s="18">
         <v>1</v>
       </c>
       <c r="H103" s="3" t="str">
@@ -5150,7 +5155,7 @@
       <c r="F104" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G104" s="16">
+      <c r="G104" s="18">
         <v>1</v>
       </c>
       <c r="H104" s="3" t="str">
@@ -5176,7 +5181,7 @@
       <c r="F105" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="16">
+      <c r="G105" s="18">
         <v>0</v>
       </c>
       <c r="H105" s="3" t="str">
@@ -5202,7 +5207,7 @@
       <c r="F106" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G106" s="16">
+      <c r="G106" s="18">
         <v>0</v>
       </c>
       <c r="H106" s="3" t="str">
@@ -5228,7 +5233,7 @@
       <c r="F107" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G107" s="16">
+      <c r="G107" s="18">
         <v>0</v>
       </c>
       <c r="H107" s="3" t="str">
@@ -5254,7 +5259,7 @@
       <c r="F108" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G108" s="16">
+      <c r="G108" s="18">
         <v>0</v>
       </c>
       <c r="H108" s="3" t="str">
@@ -5280,7 +5285,7 @@
       <c r="F109" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G109" s="16">
+      <c r="G109" s="18">
         <v>1</v>
       </c>
       <c r="H109" s="3" t="str">
@@ -5306,7 +5311,7 @@
       <c r="F110" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G110" s="16">
+      <c r="G110" s="18">
         <v>1</v>
       </c>
       <c r="H110" s="3" t="str">
@@ -5332,7 +5337,7 @@
       <c r="F111" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G111" s="16">
+      <c r="G111" s="18">
         <v>0</v>
       </c>
       <c r="H111" s="3" t="str">
@@ -5358,7 +5363,7 @@
       <c r="F112" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G112" s="16">
+      <c r="G112" s="18">
         <v>1</v>
       </c>
       <c r="H112" s="3" t="str">
@@ -5384,7 +5389,7 @@
       <c r="F113" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G113" s="16">
+      <c r="G113" s="18">
         <v>0</v>
       </c>
       <c r="H113" s="3" t="str">
@@ -5410,7 +5415,7 @@
       <c r="F114" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G114" s="16">
+      <c r="G114" s="18">
         <v>0</v>
       </c>
       <c r="H114" s="3" t="str">
@@ -5436,7 +5441,7 @@
       <c r="F115" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G115" s="16">
+      <c r="G115" s="18">
         <v>0</v>
       </c>
       <c r="H115" s="3" t="str">
@@ -5462,7 +5467,7 @@
       <c r="F116" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G116" s="16">
+      <c r="G116" s="18">
         <v>0</v>
       </c>
       <c r="H116" s="3" t="str">
@@ -5488,7 +5493,7 @@
       <c r="F117" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G117" s="16">
+      <c r="G117" s="18">
         <v>1</v>
       </c>
       <c r="H117" s="3" t="str">
@@ -5514,7 +5519,7 @@
       <c r="F118" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G118" s="16">
+      <c r="G118" s="18">
         <v>1</v>
       </c>
       <c r="H118" s="3" t="str">
@@ -5540,7 +5545,7 @@
       <c r="F119" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G119" s="16">
+      <c r="G119" s="18">
         <v>1</v>
       </c>
       <c r="H119" s="3" t="str">
@@ -5566,7 +5571,7 @@
       <c r="F120" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G120" s="16">
+      <c r="G120" s="18">
         <v>0</v>
       </c>
       <c r="H120" s="3" t="str">
@@ -5592,7 +5597,7 @@
       <c r="F121" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G121" s="16">
+      <c r="G121" s="18">
         <v>0</v>
       </c>
       <c r="H121" s="3" t="str">
@@ -5618,7 +5623,7 @@
       <c r="F122" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G122" s="16">
+      <c r="G122" s="18">
         <v>0</v>
       </c>
       <c r="H122" s="3" t="str">
@@ -5644,7 +5649,7 @@
       <c r="F123" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G123" s="16">
+      <c r="G123" s="18">
         <v>0</v>
       </c>
       <c r="H123" s="3" t="str">
@@ -5670,7 +5675,7 @@
       <c r="F124" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G124" s="16">
+      <c r="G124" s="18">
         <v>0</v>
       </c>
       <c r="H124" s="3" t="str">
@@ -5696,7 +5701,7 @@
       <c r="F125" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G125" s="16">
+      <c r="G125" s="18">
         <v>0</v>
       </c>
       <c r="H125" s="3" t="str">
@@ -5722,7 +5727,7 @@
       <c r="F126" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G126" s="16">
+      <c r="G126" s="18">
         <v>0</v>
       </c>
       <c r="H126" s="3" t="str">
@@ -5748,7 +5753,7 @@
       <c r="F127" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G127" s="16">
+      <c r="G127" s="18">
         <v>0</v>
       </c>
       <c r="H127" s="3" t="str">
@@ -5774,7 +5779,7 @@
       <c r="F128" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G128" s="16">
+      <c r="G128" s="18">
         <v>0</v>
       </c>
       <c r="H128" s="3" t="str">
@@ -5800,7 +5805,7 @@
       <c r="F129" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G129" s="16">
+      <c r="G129" s="18">
         <v>0</v>
       </c>
       <c r="H129" s="3" t="str">
@@ -5826,7 +5831,7 @@
       <c r="F130" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G130" s="16">
+      <c r="G130" s="18">
         <v>0</v>
       </c>
       <c r="H130" s="3" t="str">
@@ -5852,7 +5857,7 @@
       <c r="F131" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G131" s="16">
+      <c r="G131" s="18">
         <v>0</v>
       </c>
       <c r="H131" s="3" t="str">
@@ -5878,7 +5883,7 @@
       <c r="F132" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G132" s="16">
+      <c r="G132" s="18">
         <v>0</v>
       </c>
       <c r="H132" s="3" t="str">
@@ -5904,7 +5909,7 @@
       <c r="F133" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G133" s="16">
+      <c r="G133" s="18">
         <v>0</v>
       </c>
       <c r="H133" s="3" t="str">
@@ -5930,7 +5935,7 @@
       <c r="F134" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G134" s="16">
+      <c r="G134" s="18">
         <v>1</v>
       </c>
       <c r="H134" s="3" t="str">
@@ -5956,7 +5961,7 @@
       <c r="F135" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G135" s="16">
+      <c r="G135" s="18">
         <v>1</v>
       </c>
       <c r="H135" s="3" t="str">
@@ -5982,7 +5987,7 @@
       <c r="F136" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G136" s="16">
+      <c r="G136" s="18">
         <v>0</v>
       </c>
       <c r="H136" s="3" t="str">
@@ -6008,7 +6013,7 @@
       <c r="F137" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G137" s="16">
+      <c r="G137" s="18">
         <v>0</v>
       </c>
       <c r="H137" s="3" t="str">
@@ -6034,7 +6039,7 @@
       <c r="F138" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G138" s="16">
+      <c r="G138" s="18">
         <v>0</v>
       </c>
       <c r="H138" s="3" t="str">
@@ -6060,7 +6065,7 @@
       <c r="F139" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G139" s="16">
+      <c r="G139" s="18">
         <v>0</v>
       </c>
       <c r="H139" s="3" t="str">
@@ -6086,7 +6091,7 @@
       <c r="F140" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G140" s="16">
+      <c r="G140" s="18">
         <v>0</v>
       </c>
       <c r="H140" s="3" t="str">
@@ -6112,7 +6117,7 @@
       <c r="F141" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G141" s="16">
+      <c r="G141" s="18">
         <v>1</v>
       </c>
       <c r="H141" s="3" t="str">
@@ -6138,7 +6143,7 @@
       <c r="F142" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G142" s="16">
+      <c r="G142" s="18">
         <v>1</v>
       </c>
       <c r="H142" s="3" t="str">
@@ -6164,7 +6169,7 @@
       <c r="F143" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G143" s="16">
+      <c r="G143" s="18">
         <v>0</v>
       </c>
       <c r="H143" s="3" t="str">
@@ -6190,7 +6195,7 @@
       <c r="F144" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G144" s="16">
+      <c r="G144" s="18">
         <v>1</v>
       </c>
       <c r="H144" s="3" t="str">
@@ -6216,7 +6221,7 @@
       <c r="F145" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G145" s="16">
+      <c r="G145" s="18">
         <v>0</v>
       </c>
       <c r="H145" s="3" t="str">
@@ -6242,7 +6247,7 @@
       <c r="F146" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G146" s="16">
+      <c r="G146" s="18">
         <v>0</v>
       </c>
       <c r="H146" s="3" t="str">
@@ -6268,7 +6273,7 @@
       <c r="F147" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G147" s="16">
+      <c r="G147" s="18">
         <v>0</v>
       </c>
       <c r="H147" s="3" t="str">
@@ -6294,7 +6299,7 @@
       <c r="F148" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G148" s="16">
+      <c r="G148" s="18">
         <v>0</v>
       </c>
       <c r="H148" s="3" t="str">
@@ -6320,7 +6325,7 @@
       <c r="F149" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G149" s="16">
+      <c r="G149" s="18">
         <v>1</v>
       </c>
       <c r="H149" s="3" t="str">
@@ -6346,7 +6351,7 @@
       <c r="F150" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G150" s="16">
+      <c r="G150" s="18">
         <v>1</v>
       </c>
       <c r="H150" s="3" t="str">
@@ -6372,7 +6377,7 @@
       <c r="F151" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G151" s="16">
+      <c r="G151" s="18">
         <v>0</v>
       </c>
       <c r="H151" s="3" t="str">
@@ -6398,7 +6403,7 @@
       <c r="F152" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G152" s="16">
+      <c r="G152" s="18">
         <v>0</v>
       </c>
       <c r="H152" s="3" t="str">
@@ -6424,7 +6429,7 @@
       <c r="F153" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G153" s="16">
+      <c r="G153" s="18">
         <v>0</v>
       </c>
       <c r="H153" s="3" t="str">
@@ -6450,7 +6455,7 @@
       <c r="F154" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G154" s="16">
+      <c r="G154" s="18">
         <v>0</v>
       </c>
       <c r="H154" s="3" t="str">
@@ -6476,7 +6481,7 @@
       <c r="F155" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G155" s="16">
+      <c r="G155" s="18">
         <v>0</v>
       </c>
       <c r="H155" s="3" t="str">
@@ -6502,7 +6507,7 @@
       <c r="F156" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G156" s="16">
+      <c r="G156" s="18">
         <v>1</v>
       </c>
       <c r="H156" s="3" t="str">
@@ -6528,7 +6533,7 @@
       <c r="F157" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G157" s="16">
+      <c r="G157" s="18">
         <v>1</v>
       </c>
       <c r="H157" s="3" t="str">
@@ -6554,7 +6559,7 @@
       <c r="F158" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G158" s="16">
+      <c r="G158" s="18">
         <v>0</v>
       </c>
       <c r="H158" s="3" t="str">
@@ -6580,7 +6585,7 @@
       <c r="F159" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G159" s="16">
+      <c r="G159" s="18">
         <v>1</v>
       </c>
       <c r="H159" s="3" t="str">
@@ -6606,7 +6611,7 @@
       <c r="F160" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G160" s="16">
+      <c r="G160" s="18">
         <v>0</v>
       </c>
       <c r="H160" s="3" t="str">
@@ -6632,7 +6637,7 @@
       <c r="F161" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G161" s="16">
+      <c r="G161" s="18">
         <v>0</v>
       </c>
       <c r="H161" s="3" t="str">
@@ -6658,7 +6663,7 @@
       <c r="F162" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G162" s="16">
+      <c r="G162" s="18">
         <v>0</v>
       </c>
       <c r="H162" s="3" t="str">
@@ -6684,7 +6689,7 @@
       <c r="F163" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G163" s="16">
+      <c r="G163" s="18">
         <v>0</v>
       </c>
       <c r="H163" s="3" t="str">
@@ -6710,10 +6715,10 @@
       <c r="F164" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G164" s="16">
+      <c r="G164" s="18">
         <v>1</v>
       </c>
-      <c r="H164" s="17" t="str">
+      <c r="H164" s="19" t="str">
         <f>"iel_"&amp;B164</f>
         <v>iel_unload_key</v>
       </c>
@@ -6736,7 +6741,7 @@
       <c r="F165" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G165" s="16">
+      <c r="G165" s="18">
         <v>0</v>
       </c>
       <c r="H165" s="3" t="str">
@@ -6762,7 +6767,7 @@
       <c r="F166" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G166" s="16">
+      <c r="G166" s="18">
         <v>0</v>
       </c>
       <c r="H166" s="3" t="str">
@@ -6788,7 +6793,7 @@
       <c r="F167" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G167" s="16">
+      <c r="G167" s="18">
         <v>0</v>
       </c>
       <c r="H167" s="3" t="str">
@@ -6814,7 +6819,7 @@
       <c r="F168" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G168" s="16">
+      <c r="G168" s="18">
         <v>0</v>
       </c>
       <c r="H168" s="3" t="str">
@@ -6840,7 +6845,7 @@
       <c r="F169" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G169" s="16">
+      <c r="G169" s="18">
         <v>0</v>
       </c>
       <c r="H169" s="3" t="str">
@@ -6866,7 +6871,7 @@
       <c r="F170" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G170" s="16">
+      <c r="G170" s="18">
         <v>0</v>
       </c>
       <c r="H170" s="3" t="str">
@@ -7182,7 +7187,7 @@
       <c r="A19" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="20" t="s">
         <v>229</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -7193,7 +7198,7 @@
       <c r="A20" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="20" t="s">
         <v>229</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -7204,7 +7209,7 @@
       <c r="A21" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="20" t="s">
         <v>234</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -7215,7 +7220,7 @@
       <c r="A22" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="20" t="s">
         <v>234</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -7226,7 +7231,7 @@
       <c r="A23" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="20" t="s">
         <v>239</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -7237,7 +7242,7 @@
       <c r="A24" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="20" t="s">
         <v>242</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -7248,7 +7253,7 @@
       <c r="A25" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="20" t="s">
         <v>242</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -7259,7 +7264,7 @@
       <c r="A26" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="20" t="s">
         <v>247</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -7270,7 +7275,7 @@
       <c r="A27" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="20" t="s">
         <v>250</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -7281,7 +7286,7 @@
       <c r="A28" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>253</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -7292,7 +7297,7 @@
       <c r="A29" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="20" t="s">
         <v>256</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -7303,7 +7308,7 @@
       <c r="A30" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="20" t="s">
         <v>256</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -7314,7 +7319,7 @@
       <c r="A31" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="20" t="s">
         <v>261</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -7347,7 +7352,7 @@
       <c r="A34" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="20" t="s">
         <v>269</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -7358,7 +7363,7 @@
       <c r="A35" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="20" t="s">
         <v>272</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -7369,7 +7374,7 @@
       <c r="A36" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="20" t="s">
         <v>275</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -7380,7 +7385,7 @@
       <c r="A37" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="20" t="s">
         <v>277</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -7402,7 +7407,7 @@
       <c r="A39" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="20" t="s">
         <v>281</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -7413,7 +7418,7 @@
       <c r="A40" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="20" t="s">
         <v>283</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -7446,7 +7451,7 @@
       <c r="A43" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="20" t="s">
         <v>290</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -7457,7 +7462,7 @@
       <c r="A44" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="20" t="s">
         <v>234</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -7468,7 +7473,7 @@
       <c r="A45" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="20" t="s">
         <v>234</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -7479,7 +7484,7 @@
       <c r="A46" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="20" t="s">
         <v>234</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -7490,7 +7495,7 @@
       <c r="A47" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="20" t="s">
         <v>297</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -7501,7 +7506,7 @@
       <c r="A48" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="20" t="s">
         <v>300</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -7512,7 +7517,7 @@
       <c r="A49" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="20" t="s">
         <v>303</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -7523,7 +7528,7 @@
       <c r="A50" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="20" t="s">
         <v>306</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -7534,7 +7539,7 @@
       <c r="A51" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="20" t="s">
         <v>309</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -7545,7 +7550,7 @@
       <c r="A52" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="20" t="s">
         <v>312</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -7556,7 +7561,7 @@
       <c r="A53" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="20" t="s">
         <v>315</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -7567,7 +7572,7 @@
       <c r="A54" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="20" t="s">
         <v>318</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -7578,7 +7583,7 @@
       <c r="A55" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="20" t="s">
         <v>321</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -7589,7 +7594,7 @@
       <c r="A56" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="20" t="s">
         <v>324</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -7600,7 +7605,7 @@
       <c r="A57" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="20" t="s">
         <v>327</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -7611,7 +7616,7 @@
       <c r="A58" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="20" t="s">
         <v>330</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -7622,7 +7627,7 @@
       <c r="A59" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="20" t="s">
         <v>333</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -7633,7 +7638,7 @@
       <c r="A60" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="20" t="s">
         <v>336</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -7644,7 +7649,7 @@
       <c r="A61" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="20" t="s">
         <v>336</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -7655,7 +7660,7 @@
       <c r="A62" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="20" t="s">
         <v>336</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -7666,7 +7671,7 @@
       <c r="A63" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="20" t="s">
         <v>343</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -7677,7 +7682,7 @@
       <c r="A64" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="20" t="s">
         <v>346</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -7688,7 +7693,7 @@
       <c r="A65" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="20" t="s">
         <v>349</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -7764,7 +7769,7 @@
       <c r="B2" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>353</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -7779,7 +7784,7 @@
       <c r="G2" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>357</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -7799,7 +7804,7 @@
       <c r="B3" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>353</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -7814,7 +7819,7 @@
       <c r="G3" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="22" t="s">
         <v>357</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -7834,7 +7839,7 @@
       <c r="B4" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>353</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -7849,7 +7854,7 @@
       <c r="G4" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="22" t="s">
         <v>357</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -7869,7 +7874,7 @@
       <c r="B5" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>353</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -7884,7 +7889,7 @@
       <c r="G5" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="22" t="s">
         <v>357</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -7904,7 +7909,7 @@
       <c r="B6" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>353</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -7919,7 +7924,7 @@
       <c r="G6" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="22" t="s">
         <v>357</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -7939,7 +7944,7 @@
       <c r="B7" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>353</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -7954,7 +7959,7 @@
       <c r="G7" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="22" t="s">
         <v>357</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -8055,7 +8060,7 @@
       <c r="H2" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8086,7 +8091,7 @@
       <c r="H3" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8117,7 +8122,7 @@
       <c r="H4" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8149,7 +8154,7 @@
       <c r="H5" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8181,7 +8186,7 @@
       <c r="H6" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8213,7 +8218,7 @@
       <c r="H7" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8277,7 +8282,7 @@
       <c r="H9" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8309,7 +8314,7 @@
       <c r="H10" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8341,7 +8346,7 @@
       <c r="H11" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8371,7 +8376,7 @@
       <c r="H12" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8401,7 +8406,7 @@
       <c r="H13" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8431,7 +8436,7 @@
       <c r="H14" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8461,7 +8466,7 @@
       <c r="H15" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8491,7 +8496,7 @@
       <c r="H16" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8521,7 +8526,7 @@
       <c r="H17" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8581,7 +8586,7 @@
       <c r="H19" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8611,7 +8616,7 @@
       <c r="H20" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8641,7 +8646,7 @@
       <c r="H21" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8701,7 +8706,7 @@
       <c r="H23" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8731,7 +8736,7 @@
       <c r="H24" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8761,7 +8766,7 @@
       <c r="H25" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8791,7 +8796,7 @@
       <c r="H26" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8821,7 +8826,7 @@
       <c r="H27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8851,7 +8856,7 @@
       <c r="H28" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -8881,7 +8886,7 @@
       <c r="H29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8911,7 +8916,7 @@
       <c r="H30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8941,7 +8946,7 @@
       <c r="H31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8971,7 +8976,7 @@
       <c r="H32" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9001,7 +9006,7 @@
       <c r="H33" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9031,7 +9036,7 @@
       <c r="H34" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9061,7 +9066,7 @@
       <c r="H35" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9091,7 +9096,7 @@
       <c r="H36" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9151,7 +9156,7 @@
       <c r="H38" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9181,7 +9186,7 @@
       <c r="H39" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9359,7 +9364,7 @@
       <c r="H45" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="I45" s="21" t="s">
+      <c r="I45" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9389,7 +9394,7 @@
       <c r="H46" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9419,7 +9424,7 @@
       <c r="H47" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9479,7 +9484,7 @@
       <c r="H49" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9511,7 +9516,7 @@
       <c r="H50" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9542,7 +9547,7 @@
       <c r="H51" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9573,7 +9578,7 @@
       <c r="H52" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I52" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9605,7 +9610,7 @@
       <c r="H53" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I53" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9637,7 +9642,7 @@
       <c r="H54" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I54" s="21" t="s">
+      <c r="I54" s="23" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9668,7 +9673,7 @@
       <c r="H55" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="I55" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9699,7 +9704,7 @@
       <c r="H56" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I56" s="21" t="s">
+      <c r="I56" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9730,7 +9735,7 @@
       <c r="H57" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I57" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9762,7 +9767,7 @@
       <c r="H58" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I58" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9792,7 +9797,7 @@
       <c r="H59" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I59" s="21" t="s">
+      <c r="I59" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9824,7 +9829,7 @@
       <c r="H60" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I60" s="21" t="s">
+      <c r="I60" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9856,7 +9861,7 @@
       <c r="H61" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="I61" s="21" t="s">
+      <c r="I61" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9949,7 +9954,7 @@
       <c r="H64" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="I64" s="21" t="s">
+      <c r="I64" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -10322,7 +10327,7 @@
       <c r="H76" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="I76" s="21" t="s">
+      <c r="I76" s="23" t="s">
         <v>369</v>
       </c>
     </row>
@@ -10472,7 +10477,7 @@
       <c r="G2" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>425</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -10507,7 +10512,7 @@
       <c r="G3" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="22" t="s">
         <v>425</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -10542,7 +10547,7 @@
       <c r="G4" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="22" t="s">
         <v>425</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -10577,7 +10582,7 @@
       <c r="G5" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="22" t="s">
         <v>425</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -10612,7 +10617,7 @@
       <c r="G6" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="22" t="s">
         <v>425</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -10647,7 +10652,7 @@
       <c r="G7" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="22" t="s">
         <v>425</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -10743,7 +10748,7 @@
       <c r="G2" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="22" t="s">
         <v>429</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -10778,7 +10783,7 @@
       <c r="G3" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="22" t="s">
         <v>429</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -10813,7 +10818,7 @@
       <c r="G4" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="22" t="s">
         <v>429</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -10848,7 +10853,7 @@
       <c r="G5" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="22" t="s">
         <v>429</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -10883,7 +10888,7 @@
       <c r="G6" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="22" t="s">
         <v>429</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -10918,7 +10923,7 @@
       <c r="G7" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="22" t="s">
         <v>429</v>
       </c>
       <c r="I7" s="4" t="s">
